--- a/risques.xlsx
+++ b/risques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoreld/Documents/University/z2018-2019/Gouvernance des SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A36108-0CA7-C243-8EDB-D4EE6C12AE0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ECD5A0-D012-9543-8A83-17E90F4D3159}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{AA98A236-7EDC-DA43-B47F-7B14C00582AE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -65,18 +65,9 @@
     <t>Risque de sécurité car antivirus des serveurs pas mis à jour automatiquement</t>
   </si>
   <si>
-    <t>Mettre en place des mises à jour automatiques pour l'antivirus</t>
-  </si>
-  <si>
     <t>Faire remonter une alerte à l'équipe de réponse. Améliorer le procesus de réponse aux incidents et la politique de sécurité en étudiant l'attaque et son impact.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mettre à jour la configuration des serveurs pour se conformer à la politique de sécurité de l'entreprise. Mettre en place une équipe en charge de défendre contre les attaques. </t>
-  </si>
-  <si>
-    <t>Mettre en place des téléchargements automatiques pour les mises à jour Windows. Mettre en place processus de mise à jour manuelle par les administrateur d'abord sur des serveurs tests, ensuite sur l'environnement de production.</t>
-  </si>
-  <si>
     <t>Risque de sécurité car version de Windows de serveurs pas patchée automatiquement</t>
   </si>
   <si>
@@ -104,10 +95,49 @@
     <t>Remplacer l'accès TSE administrateur des fournisseurs par un accès avec les droits minimums nécessaire à leurs missions</t>
   </si>
   <si>
-    <t>Revoquer l'accès du  fournisseur en question et revoquer l'accès. Reviser la politique de droits d'accès de l'entreprise</t>
-  </si>
-  <si>
     <t>R7</t>
+  </si>
+  <si>
+    <t>Revoquer l'accès du  fournisseur en question. Reviser et mettre à jour la politique de droits d'accès de l'entreprise</t>
+  </si>
+  <si>
+    <t>Violation des données privées (RGPD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encrypter les backups. </t>
+  </si>
+  <si>
+    <t>Identifier les données qu'on été affectées, mettre en place un plan d'action de réponse et suivre les réglémentations en vigueur du RGPD en ce qui concerne les violations des données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurer le dernier backup valide. Si il n'a pas, restaurer manuellement autant de données que possible. </t>
+  </si>
+  <si>
+    <t>Procédures de backups et de réstoration doivent être testées régulierement selon la politique de backup. Des supports additionnels doivent être installés et configurés afin d'avoir de backups pour les backups en cas de défaillance de disque.</t>
+  </si>
+  <si>
+    <t>Mettre à jour la configuration des serveurs pour se conformer à la politique de sécurité de l'entreprise. Mettre en place une équipe en charge de défendre contre les cyber-attaques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre en place des mises à jour automatiques pour l'antivirus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre en place des téléchargements automatiques pour les mises à jour Windows. </t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Défaillance ou perte du backup</t>
+  </si>
+  <si>
+    <t>Défaillance des imprimantes en fin de vie</t>
+  </si>
+  <si>
+    <t>Remplacer les imprimantes personnelles par des imprimantes réseaux communes (utiliser les imprimantes déjà existantes multi-fonctions pour cela)</t>
+  </si>
+  <si>
+    <t>Former les utilisateurs à l'utilisation des imprimantes partagées sur le réseau</t>
   </si>
 </sst>
 </file>
@@ -471,15 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BCDCF4-F825-9347-869E-FD6FC9FAC38A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
@@ -506,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,13 +548,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -537,41 +568,41 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -580,18 +611,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -600,20 +631,70 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
